--- a/biology/Zoologie/Élanion_naucler/Élanion_naucler.xlsx
+++ b/biology/Zoologie/Élanion_naucler/Élanion_naucler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lanion_naucler</t>
+          <t>Élanion_naucler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chelictinia riocourii
 L'Élanion naucler (Chelictinia riocourii), également appelé milan de Riocour ou naucler d'Afrique, est une espèce d'oiseaux de la famille des Accipitridae. C'est la seule espèce du genre Chelictinia. D'après Alan P. Peterson, c'est une espèce monotypique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lanion_naucler</t>
+          <t>Élanion_naucler</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple les savanes bordant le sud du Sahara et de manière plus dissoute en Afrique de l'Est.
 </t>
